--- a/biology/Zoologie/Bethylonymidae/Bethylonymidae.xlsx
+++ b/biology/Zoologie/Bethylonymidae/Bethylonymidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bethylonymoidea
 Les Bethylonymoidea forment une super-famille fossile d'hyménoptères. Elle ne contient qu'une seule famille, les Bethylonymidae.
@@ -512,9 +524,11 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leurs fossiles ont été trouvés figés dans de l'ambre datée du Jurassique supérieur jusqu'au Barrémien, soit il y a environ entre 163 et 125 Ma (millions d'années)[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leurs fossiles ont été trouvés figés dans de l'ambre datée du Jurassique supérieur jusqu'au Barrémien, soit il y a environ entre 163 et 125 Ma (millions d'années). 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils présentent les premières évolutions de la constriction entre le thorax et l'abdomen[2] : la « taille de guêpe ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils présentent les premières évolutions de la constriction entre le thorax et l'abdomen : la « taille de guêpe ».
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Bethylonymoidea ne comprennent que la famille des Bethylonymidae qui elle-même regroupe les espèces suivantes :
 †Arthrogaster :
